--- a/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
+++ b/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17710" windowHeight="9340" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="6500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="복습-freshman" sheetId="1" r:id="rId4"/>
@@ -31,93 +31,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
-  <x:si>
-    <x:t>FROM  emp, project;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A = S1.A;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 카디션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember INNER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON freshman.name = dmember.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE freshman.name = dmember.name;</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="116">
   <x:si>
     <x:t>FROM   emp RIGHT OUTER JOIN project</x:t>
   </x:si>
   <x:si>
-    <x:t>FROM  emp, project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman, dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT R1.A, B, C, D</x:t>
+    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  R1, S1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- 실행결과는 무엇인가?</x:t>
   </x:si>
   <x:si>
     <x:t>FROM  R1, S1</x:t>
   </x:si>
   <x:si>
-    <x:t>FROM  R1, S1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- 실행결과는 무엇인가?</x:t>
-  </x:si>
-  <x:si>
     <x:t>emp, project</x:t>
   </x:si>
   <x:si>
-    <x:t>pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
+    <x:r>
+      <x:t>R</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1, S1</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -134,6 +78,32 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>roupid</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>o</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>member</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>1</x:t>
     </x:r>
     <x:r>
@@ -146,8 +116,17 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>g</x:t>
+    <x:t>WHERE R1.A = S1.A;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  emp, project;</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>f</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -155,8 +134,125 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>roupid</x:t>
-    </x:r>
+      <x:t>reshman, dmember</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM  emp, project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT omember.groupid, id, position;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember INNER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman, dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT emp.pno, ename, pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE emp.pno = project.pno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp INNER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산업공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ename</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관계대수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등조인</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -173,6 +269,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>n</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ame</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>[복습</x:t>
     </x:r>
     <x:r>
@@ -185,8 +294,17 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>n</x:t>
+    <x:t>SELECT R1.A, B, C, D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>R</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -194,12 +312,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>ame</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>o</x:t>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>S</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -207,12 +325,99 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>member</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>R</x:t>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>대구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍보부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김광식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작전중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유레카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특공대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김현정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다모여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신동엽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임꺽정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박찬호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조영수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -220,158 +425,128 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>1, S1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산업공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관계대수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍보부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조영수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김광식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김현정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임꺽정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다모여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박찬호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신동엽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작전중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유레카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특공대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>4</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>i</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>d</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>osition</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>roup_ex</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>5) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 카디션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT *</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카티션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 완전 외부조인</x:t>
   </x:si>
   <x:si>
     <x:t>dept_name</x:t>
   </x:si>
   <x:si>
-    <x:t>SELECT *</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카티션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 오른쪽 외부조인</x:t>
+    <x:t>4) 왼쪽 외부조인</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -414,45 +589,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>osition</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>g</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>roup_ex</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>[Quiz 1-</x:t>
     </x:r>
     <x:r>
@@ -463,147 +599,6 @@
       </x:rPr>
       <x:t>3]</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>i</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>d</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>S</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>4</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>R</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>f</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>reshman, dmember</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp INNER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT omember.groupid, id, position;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT emp.pno, ename, pname</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>UNION</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -856,7 +851,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing83.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -887,7 +882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6976241" y="1287517"/>
+          <a:off x="7330964" y="1287517"/>
           <a:ext cx="991913" cy="1057603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -943,7 +938,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing84.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -974,8 +969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5736648" y="1303193"/>
-          <a:ext cx="998482" cy="1057603"/>
+          <a:off x="5732318" y="1307522"/>
+          <a:ext cx="1004454" cy="1056409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,7 +987,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing85.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1024,7 +1019,7 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="6877843" y="1337468"/>
-          <a:ext cx="998482" cy="1057603"/>
+          <a:ext cx="1000124" cy="1055687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,7 +1036,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing86.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1073,7 +1068,7 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="6887307" y="1326173"/>
-          <a:ext cx="998482" cy="1057603"/>
+          <a:ext cx="996461" cy="1055076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1090,7 +1085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing87.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1177,7 +1172,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing88.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1552,8 +1547,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:K12"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <x:selection activeCell="L7" activeCellId="0" sqref="L7:L7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -1565,112 +1560,112 @@
     <x:col min="6" max="6" width="1.44140625" style="10" customWidth="1"/>
     <x:col min="7" max="7" width="5.109375" style="10" customWidth="1"/>
     <x:col min="8" max="8" width="8.88671875" style="10"/>
-    <x:col min="9" max="9" width="10.21875" style="10" customWidth="1"/>
+    <x:col min="9" max="9" width="13.33203125" style="10" customWidth="1"/>
     <x:col min="10" max="16384" width="8.88671875" style="10"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:9">
       <x:c r="D5" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H8" s="14" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I8" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E10" s="15"/>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="15"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -1682,8 +1677,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B1:P45"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="B9" zoomScale="110" zoomScaleNormal="75" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <x:selection activeCell="D12" activeCellId="0" sqref="D12:F13"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="C24" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <x:selection activeCell="D26" activeCellId="0" sqref="D26:H29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -1705,57 +1700,57 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="12:12">
       <x:c r="L3" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:13">
       <x:c r="D4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M4" s="9" t="s">
-        <x:v>79</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:13">
       <x:c r="D5" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H5" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J5" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M5" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:13">
@@ -1775,10 +1770,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M6" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:13">
@@ -1798,10 +1793,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M7" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:10">
@@ -1817,36 +1812,36 @@
     </x:row>
     <x:row r="11" spans="4:12">
       <x:c r="D11" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L11" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:16">
       <x:c r="D12" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="L12" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N12" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O12" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P12" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:16">
       <x:c r="D13" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="L13" s="17">
@@ -1952,36 +1947,36 @@
     </x:row>
     <x:row r="20" spans="4:12">
       <x:c r="D20" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L20" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:16">
       <x:c r="D21" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="L21" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N21" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O21" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P21" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:16">
       <x:c r="D22" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="L22" s="17">
@@ -2002,7 +1997,7 @@
     </x:row>
     <x:row r="23" spans="4:16">
       <x:c r="D23" s="15" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="L23" s="17">
@@ -2023,32 +2018,32 @@
     </x:row>
     <x:row r="26" spans="4:12">
       <x:c r="D26" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="L26" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="4:15">
       <x:c r="D27" s="15" t="s">
-        <x:v>20</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L27" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M27" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N27" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O27" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="4:15">
       <x:c r="D28" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L28" s="17">
         <x:v>1</x:v>
@@ -2065,7 +2060,7 @@
     </x:row>
     <x:row r="29" spans="4:15">
       <x:c r="D29" s="15" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L29" s="17">
         <x:v>2</x:v>
@@ -2085,36 +2080,36 @@
     </x:row>
     <x:row r="31" spans="4:12">
       <x:c r="D31" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L31" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:16">
       <x:c r="D32" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="L32" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O32" s="17" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P32" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="4:16">
       <x:c r="D33" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="L33" s="17">
@@ -2135,7 +2130,7 @@
     </x:row>
     <x:row r="34" spans="4:16">
       <x:c r="D34" s="15" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E34" s="15"/>
       <x:c r="L34" s="17">
@@ -2173,28 +2168,28 @@
     </x:row>
     <x:row r="44" spans="12:12">
       <x:c r="L44" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:15">
       <x:c r="D45" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O45" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2206,8 +2201,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B1:N69"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="C56" zoomScale="120" zoomScaleNormal="75" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <x:selection activeCell="G63" activeCellId="0" sqref="G63:G63"/>
+    <x:sheetView showGridLines="0" topLeftCell="C9" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:I14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2230,54 +2225,54 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>91</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:12">
       <x:c r="D5" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:12">
@@ -2285,19 +2280,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:12">
@@ -2305,19 +2300,19 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E7" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H7" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
@@ -2325,13 +2320,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H8" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
@@ -2339,85 +2334,85 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H9" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:9">
       <x:c r="D10" s="16"/>
       <x:c r="E10" s="16"/>
       <x:c r="H10" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="13" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:11">
       <x:c r="D11" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K11" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:14">
       <x:c r="D12" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="K12" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L12" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N12" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L14" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M14" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="11:14">
@@ -2425,89 +2420,89 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L15" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M15" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="11:11">
       <x:c r="K18" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="4:14">
       <x:c r="D19" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K19" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L19" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M19" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N19" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="4:14">
       <x:c r="D20" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E20" s="15"/>
       <x:c r="K20" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L20" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M20" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N20" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:14">
       <x:c r="D21" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="K21" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="K22" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L22" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M22" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="11:14">
@@ -2515,117 +2510,117 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="L23" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="11:11">
       <x:c r="K29" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="4:14">
       <x:c r="D30" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K30" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N30" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:14">
       <x:c r="D31" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E31" s="15"/>
       <x:c r="K31" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N31" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:14">
       <x:c r="D32" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="K32" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="4:14">
       <x:c r="D33" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="K33" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M33" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N33" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:14">
       <x:c r="K34" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M34" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N34" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:14">
       <x:c r="K35" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M35" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N35" s="13" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:14">
@@ -2633,235 +2628,235 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L36" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M36" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N36" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="11:11">
       <x:c r="K43" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:14">
       <x:c r="D44" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K44" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L44" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M44" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N44" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:14">
       <x:c r="D45" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E45" s="15"/>
       <x:c r="K45" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="4:14">
       <x:c r="D46" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E46" s="15"/>
       <x:c r="K46" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L46" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M46" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N46" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="4:14">
       <x:c r="D47" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E47" s="15"/>
       <x:c r="K47" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L47" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M47" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N47" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="4:14">
       <x:c r="D48" s="15" t="s">
-        <x:v>115</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K48" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L48" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="4:14">
       <x:c r="D49" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E49" s="15"/>
       <x:c r="K49" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="4:14">
       <x:c r="D50" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M50" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:14">
       <x:c r="D51" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M51" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="4:4">
       <x:c r="D54" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="4:5">
       <x:c r="D55" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E55" s="15"/>
     </x:row>
     <x:row r="56" spans="4:5">
       <x:c r="D56" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E56" s="15"/>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K60" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L60" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M60" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L61" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M61" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E62" s="15"/>
       <x:c r="K62" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L62" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M62" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="F63" s="15"/>
@@ -2871,23 +2866,23 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L63" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M63" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:4">
       <x:c r="D65" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:13">
       <x:c r="D66" s="15" t="s">
-        <x:v>111</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
       <x:c r="F66" s="15"/>
@@ -2895,18 +2890,18 @@
       <x:c r="H66" s="15"/>
       <x:c r="I66" s="15"/>
       <x:c r="K66" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L66" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M66" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="4:13">
       <x:c r="D67" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E67" s="15"/>
       <x:c r="F67" s="15"/>
@@ -2914,18 +2909,18 @@
       <x:c r="H67" s="15"/>
       <x:c r="I67" s="15"/>
       <x:c r="K67" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L67" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="M67" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="4:13">
       <x:c r="D68" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E68" s="15"/>
       <x:c r="F68" s="15"/>
@@ -2933,28 +2928,28 @@
       <x:c r="H68" s="15"/>
       <x:c r="I68" s="15"/>
       <x:c r="K68" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L68" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="M68" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="11:13">
       <x:c r="K69" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L69" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="M69" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2964,10 +2959,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="B1:N66"/>
+  <x:dimension ref="B1:R66"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="B34" activeCellId="0" sqref="B34:B34"/>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <x:selection activeCell="H44" activeCellId="0" sqref="H44:H44"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2988,59 +2983,71 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H4" s="12" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K4" s="9" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L4" s="9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="4:18">
+      <x:c r="D5" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="13" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H5" s="13" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I5" s="13" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K5" s="9" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="L5" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="O5" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P5" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="Q5" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="R5" s="13" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="H4" s="12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K4" s="9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="L4" s="9" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="4:12">
-      <x:c r="D5" s="13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E5" s="13" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H5" s="13" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I5" s="13" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K5" s="9" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="L5" s="9" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="4:12">
+    </x:row>
+    <x:row r="6" spans="4:18">
       <x:c r="D6" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E6" s="13">
         <x:v>101</x:v>
@@ -3049,18 +3056,30 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="K6" s="9" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="L6" s="9" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="O6" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P6" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="Q6" s="13">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="R6" s="13" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="K6" s="9" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="L6" s="9" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="4:12">
+    </x:row>
+    <x:row r="7" spans="4:18">
       <x:c r="D7" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E7" s="13">
         <x:v>102</x:v>
@@ -3069,18 +3088,30 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="4:9">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O7" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P7" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="Q7" s="13">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="R7" s="13" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="4:18">
       <x:c r="D8" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E8" s="13">
         <x:v>101</x:v>
@@ -3089,12 +3120,24 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="O8" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P8" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="Q8" s="13">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="R8" s="13" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
       <x:c r="D9" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E9" s="13">
         <x:v>103</x:v>
@@ -3103,15 +3146,15 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E10" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
@@ -3120,37 +3163,37 @@
     </x:row>
     <x:row r="12" spans="4:11">
       <x:c r="D12" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>101</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L14" s="13">
         <x:v>101</x:v>
@@ -3159,16 +3202,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="4:14">
       <x:c r="D15" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E15" s="15"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L15" s="13">
         <x:v>102</x:v>
@@ -3177,12 +3220,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="11:14">
       <x:c r="K16" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L16" s="13">
         <x:v>101</x:v>
@@ -3191,15 +3234,15 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N16" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="4:14">
       <x:c r="D17" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K17" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L17" s="13">
         <x:v>103</x:v>
@@ -3208,41 +3251,41 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N17" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="4:5">
       <x:c r="D18" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
     </x:row>
     <x:row r="19" spans="4:5">
       <x:c r="D19" s="15" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E19" s="15"/>
     </x:row>
     <x:row r="21" spans="11:14">
       <x:c r="K21" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K22" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L22" s="13">
         <x:v>101</x:v>
@@ -3251,16 +3294,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="4:14">
       <x:c r="D23" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="K23" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L23" s="13">
         <x:v>102</x:v>
@@ -3269,16 +3312,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N23" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="4:14">
       <x:c r="D24" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E24" s="15"/>
       <x:c r="K24" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L24" s="13">
         <x:v>101</x:v>
@@ -3287,16 +3330,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N24" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="4:14">
       <x:c r="D25" s="15" t="s">
-        <x:v>104</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E25" s="15"/>
       <x:c r="K25" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L25" s="13">
         <x:v>103</x:v>
@@ -3305,105 +3348,105 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="11:13">
       <x:c r="K28" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L28" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M28" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="4:13">
       <x:c r="D29" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K29" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L29" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M29" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="4:13">
       <x:c r="D30" s="15" t="s">
-        <x:v>114</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K30" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:13">
       <x:c r="D31" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K31" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:13">
       <x:c r="D32" s="15" t="s">
-        <x:v>104</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K32" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M32" s="13" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="M32" s="13" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:11">
       <x:c r="K37" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="4:14">
       <x:c r="D38" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K38" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L38" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M38" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N38" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="4:14">
       <x:c r="D39" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E39" s="15"/>
       <x:c r="K39" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L39" s="13">
         <x:v>101</x:v>
@@ -3412,16 +3455,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N39" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="4:14">
       <x:c r="D40" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E40" s="15"/>
       <x:c r="K40" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L40" s="13">
         <x:v>102</x:v>
@@ -3430,16 +3473,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N40" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:14">
       <x:c r="D41" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E41" s="15"/>
       <x:c r="K41" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L41" s="13">
         <x:v>101</x:v>
@@ -3448,12 +3491,12 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N41" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="11:14">
       <x:c r="K42" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L42" s="13">
         <x:v>103</x:v>
@@ -3462,52 +3505,52 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N42" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="11:14">
       <x:c r="K43" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L43" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M43" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N43" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="11:11">
       <x:c r="K48" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="4:14">
       <x:c r="D49" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K49" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L49" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="4:14">
       <x:c r="D50" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L50" s="13">
         <x:v>101</x:v>
@@ -3516,16 +3559,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:14">
       <x:c r="D51" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L51" s="13">
         <x:v>102</x:v>
@@ -3534,16 +3577,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="4:14">
       <x:c r="D52" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E52" s="15"/>
       <x:c r="K52" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L52" s="13">
         <x:v>103</x:v>
@@ -3552,26 +3595,26 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N52" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="11:14">
       <x:c r="K53" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L53" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M53" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N53" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="11:14">
       <x:c r="K54" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L54" s="13">
         <x:v>101</x:v>
@@ -3580,38 +3623,38 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N54" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="11:11">
       <x:c r="K58" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="4:14">
       <x:c r="D59" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K59" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L59" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M59" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N59" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E60" s="15"/>
       <x:c r="K60" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L60" s="13">
         <x:v>101</x:v>
@@ -3620,16 +3663,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L61" s="13">
         <x:v>102</x:v>
@@ -3638,16 +3681,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>116</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E62" s="15"/>
       <x:c r="K62" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L62" s="13">
         <x:v>101</x:v>
@@ -3656,16 +3699,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="K63" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L63" s="13">
         <x:v>103</x:v>
@@ -3674,53 +3717,53 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="4:14">
       <x:c r="D64" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E64" s="15"/>
       <x:c r="K64" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L64" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M64" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N64" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:14">
       <x:c r="D65" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E65" s="15"/>
       <x:c r="K65" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L65" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M65" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N65" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:5">
       <x:c r="D66" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -3732,7 +3775,7 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="C1:O12"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="G1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3758,7 +3801,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="3:12">
@@ -3766,109 +3809,109 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K2" s="5"/>
       <x:c r="L2" s="5"/>
     </x:row>
     <x:row r="3" spans="15:15">
       <x:c r="O3" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="8:12">
       <x:c r="H4" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="8:13">
       <x:c r="H5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="8:13">
       <x:c r="H6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="8:13">
       <x:c r="H7" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:13">
       <x:c r="H8" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="8:9">
       <x:c r="H10" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
     </x:row>
     <x:row r="11" spans="8:9">
       <x:c r="H11" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
     </x:row>
     <x:row r="12" spans="8:9">
       <x:c r="H12" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -3880,7 +3923,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="B2:N27"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3899,131 +3942,131 @@
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="5"/>
       <x:c r="H2" s="5"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:14">
       <x:c r="D5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N5" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:14">
       <x:c r="D10" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="K10" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L10" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M10" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N10" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
     </x:row>
     <x:row r="15" spans="4:5">
       <x:c r="D15" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E15" s="4"/>
     </x:row>
@@ -4035,31 +4078,31 @@
     </x:row>
     <x:row r="17" spans="4:5">
       <x:c r="D17" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="4"/>
     </x:row>
     <x:row r="20" spans="4:5">
       <x:c r="D20" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E20" s="4"/>
     </x:row>
     <x:row r="21" spans="4:5">
       <x:c r="D21" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E21" s="4"/>
     </x:row>
     <x:row r="22" spans="4:5">
       <x:c r="D22" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E22" s="4"/>
     </x:row>
     <x:row r="25" spans="4:5">
       <x:c r="D25" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E25" s="4"/>
     </x:row>
@@ -4071,12 +4114,12 @@
     </x:row>
     <x:row r="27" spans="4:5">
       <x:c r="D27" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E27" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>

--- a/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
+++ b/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="6500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18950" windowHeight="6620" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="복습-freshman" sheetId="1" r:id="rId4"/>
@@ -31,24 +31,367 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="116">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="116">
+  <x:si>
+    <x:r>
+      <x:t>i</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>d</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>4</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>R</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>S</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT R1.A, B, C, D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman, dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>3]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>5) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 카디션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT *</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카티션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>f</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>reshman</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>) 카티션 프로덕트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>osition</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>roup_ex</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember INNER JOIN group_ex</x:t>
+  </x:si>
   <x:si>
     <x:t>FROM   emp RIGHT OUTER JOIN project</x:t>
   </x:si>
   <x:si>
-    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
+    <x:t>ON freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp, project</x:t>
   </x:si>
   <x:si>
     <x:t>FROM  R1, S1;</x:t>
   </x:si>
   <x:si>
+    <x:t>FROM  R1, S1</x:t>
+  </x:si>
+  <x:si>
     <x:t>-- 실행결과는 무엇인가?</x:t>
   </x:si>
   <x:si>
-    <x:t>FROM  R1, S1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp, project</x:t>
+    <x:t>전자공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산업공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ename</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관계대수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등조인</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[복습</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>n</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ame</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>a</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ddress</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -65,7 +408,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>[실습</x:t>
+      <x:t>1</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -73,7 +416,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 2]</x:t>
+      <x:t>) 내부조인</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -91,7 +434,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>o</x:t>
+      <x:t>[실습</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -99,30 +442,23 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>member</x:t>
+      <x:t xml:space="preserve"> 2]</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>) 내부조인</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A = S1.A;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  emp, project;</x:t>
+    <x:t>FROM   emp INNER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE emp.pno = project.pno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT emp.pno, ename, pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno;</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -138,195 +474,34 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>FROM  emp, project;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
+  </x:si>
+  <x:si>
     <x:t>FROM  emp, project</x:t>
   </x:si>
   <x:si>
-    <x:t>omember, group_ex</x:t>
+    <x:t>WHERE R1.A = S1.A;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
   </x:si>
   <x:si>
     <x:t>SELECT omember.groupid, id, position;</x:t>
   </x:si>
   <x:si>
-    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember INNER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman, dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON freshman.name = dmember.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE freshman.name = dmember.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT emp.pno, ename, pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp INNER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산업공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관계대수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등조인</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>a</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ddress</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>n</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ame</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[복습</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>SELECT R1.A, B, C, D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>R</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>S</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
+    <x:t>홍보부</x:t>
   </x:si>
   <x:si>
     <x:t>대구</x:t>
@@ -338,267 +513,82 @@
     <x:t>D</x:t>
   </x:si>
   <x:si>
-    <x:t>홍보부</x:t>
+    <x:t>김현정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구부</x:t>
   </x:si>
   <x:si>
     <x:t>김광식</x:t>
   </x:si>
   <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유레카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조인</x:t>
+  </x:si>
+  <x:si>
     <x:t>작전중</x:t>
   </x:si>
   <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특공대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
     <x:t>emp</x:t>
   </x:si>
   <x:si>
-    <x:t>유레카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특공대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김현정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조인</x:t>
-  </x:si>
-  <x:si>
     <x:t>다모여</x:t>
   </x:si>
   <x:si>
+    <x:t>이진영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조영수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박찬호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
     <x:t>신동엽</x:t>
   </x:si>
   <x:si>
-    <x:t>이진영</x:t>
-  </x:si>
-  <x:si>
     <x:t>임꺽정</x:t>
   </x:si>
   <x:si>
-    <x:t>박찬호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조영수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>4</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>i</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>d</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>osition</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>g</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>roup_ex</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>5) 오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 카디션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT *</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카티션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dept_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>f</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>reshman</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>) 카티션 프로덕트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>3]</x:t>
-    </x:r>
+    <x:t>omember</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -851,241 +841,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing83.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7330964" y="1287517"/>
-          <a:ext cx="991913" cy="1057603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="374431" y="4571999"/>
-          <a:ext cx="5741276" cy="2423948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing84.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5732318" y="1307522"/>
-          <a:ext cx="1004454" cy="1056409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing85.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6877843" y="1337468"/>
-          <a:ext cx="1000124" cy="1055687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing86.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6887307" y="1326173"/>
-          <a:ext cx="996461" cy="1055076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1172,7 +928,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1252,6 +1008,240 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7330964" y="1287517"/>
+          <a:ext cx="991913" cy="1057603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374431" y="4571999"/>
+          <a:ext cx="5747844" cy="2423948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5732318" y="1307522"/>
+          <a:ext cx="1004454" cy="1056409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6900863" y="1319212"/>
+          <a:ext cx="990600" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6887307" y="1326173"/>
+          <a:ext cx="996461" cy="1055076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -1547,7 +1537,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:K12"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="L7" activeCellId="0" sqref="L7:L7"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1566,106 +1556,106 @@
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:9">
       <x:c r="D5" s="13" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="14" t="s">
-        <x:v>87</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H8" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I8" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="15"/>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="15" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="15"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="15" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -1677,8 +1667,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B1:P45"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="C24" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <x:selection activeCell="D26" activeCellId="0" sqref="D26:H29"/>
+    <x:sheetView showGridLines="0" topLeftCell="C23" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <x:selection activeCell="J35" activeCellId="0" sqref="J35:J35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -1700,57 +1690,57 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="12:12">
       <x:c r="L3" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:13">
       <x:c r="D4" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M4" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:13">
       <x:c r="D5" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H5" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J5" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M5" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:13">
@@ -1770,10 +1760,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:13">
@@ -1793,10 +1783,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M7" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:10">
@@ -1812,36 +1802,36 @@
     </x:row>
     <x:row r="11" spans="4:12">
       <x:c r="D11" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="L11" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:16">
       <x:c r="D12" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="L12" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N12" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O12" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="P12" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:16">
       <x:c r="D13" s="15" t="s">
-        <x:v>2</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="L13" s="17">
@@ -1947,36 +1937,36 @@
     </x:row>
     <x:row r="20" spans="4:12">
       <x:c r="D20" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L20" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:16">
       <x:c r="D21" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="L21" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N21" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O21" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="P21" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:16">
       <x:c r="D22" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="L22" s="17">
@@ -1997,7 +1987,7 @@
     </x:row>
     <x:row r="23" spans="4:16">
       <x:c r="D23" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="L23" s="17">
@@ -2018,32 +2008,32 @@
     </x:row>
     <x:row r="26" spans="4:12">
       <x:c r="D26" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L26" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="4:15">
       <x:c r="D27" s="15" t="s">
-        <x:v>57</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L27" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M27" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N27" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O27" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="4:15">
       <x:c r="D28" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="L28" s="17">
         <x:v>1</x:v>
@@ -2060,7 +2050,7 @@
     </x:row>
     <x:row r="29" spans="4:15">
       <x:c r="D29" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L29" s="17">
         <x:v>2</x:v>
@@ -2080,36 +2070,36 @@
     </x:row>
     <x:row r="31" spans="4:12">
       <x:c r="D31" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L31" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:16">
       <x:c r="D32" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="L32" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O32" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="P32" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="4:16">
       <x:c r="D33" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="L33" s="17">
@@ -2130,7 +2120,7 @@
     </x:row>
     <x:row r="34" spans="4:16">
       <x:c r="D34" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E34" s="15"/>
       <x:c r="L34" s="17">
@@ -2168,28 +2158,28 @@
     </x:row>
     <x:row r="44" spans="12:12">
       <x:c r="L44" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:15">
       <x:c r="D45" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O45" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2199,10 +2189,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="B1:N69"/>
+  <x:dimension ref="B1:T69"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="C9" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="D11" activeCellId="0" sqref="D11:I14"/>
+    <x:sheetView showGridLines="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="E62" activeCellId="0" sqref="E62:E62"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2225,54 +2215,54 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:12">
       <x:c r="D5" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:12">
@@ -2280,19 +2270,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:12">
@@ -2300,19 +2290,19 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E7" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H7" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
@@ -2320,13 +2310,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H8" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
@@ -2334,85 +2324,85 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H9" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:9">
       <x:c r="D10" s="16"/>
       <x:c r="E10" s="16"/>
       <x:c r="H10" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I10" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:11">
       <x:c r="D11" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K11" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:14">
       <x:c r="D12" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="K12" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L12" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N12" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L14" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M14" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="11:14">
@@ -2420,89 +2410,89 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L15" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M15" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="11:11">
       <x:c r="K18" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="4:14">
       <x:c r="D19" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K19" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L19" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M19" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N19" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="4:14">
       <x:c r="D20" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E20" s="15"/>
       <x:c r="K20" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L20" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M20" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N20" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:14">
       <x:c r="D21" s="15" t="s">
-        <x:v>20</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="K21" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="K22" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L22" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M22" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="11:14">
@@ -2510,353 +2500,521 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="L23" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="11:11">
       <x:c r="K29" s="9" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="4:14">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="4:20">
       <x:c r="D30" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K30" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N30" s="13" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="4:14">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q30" s="13">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="R30" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S30" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T30" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="4:20">
       <x:c r="D31" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E31" s="15"/>
       <x:c r="K31" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N31" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="4:14">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q31" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="R31" s="13" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="S31" s="13" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="T31" s="13" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="4:20">
       <x:c r="D32" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="K32" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="4:14">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q32" s="13">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="R32" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S32" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T32" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="4:20">
       <x:c r="D33" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="K33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M33" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="N33" s="13" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="11:14">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Q33" s="13">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="R33" s="13" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="S33" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="T33" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="11:20">
       <x:c r="K34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M34" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N34" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="11:14">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="Q34" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R34" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S34" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T34" s="13" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="11:20">
       <x:c r="K35" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M35" s="13" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="N35" s="13" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q35" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R35" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S35" s="13" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="N35" s="13" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="11:14">
+      <x:c r="T35" s="13" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="11:20">
       <x:c r="K36" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L36" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M36" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N36" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q36" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R36" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S36" s="13" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T36" s="13" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="11:11">
       <x:c r="K43" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:14">
       <x:c r="D44" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K44" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L44" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M44" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N44" s="13" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="4:14">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="4:20">
       <x:c r="D45" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E45" s="15"/>
       <x:c r="K45" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="4:14">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q45" s="13">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="R45" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S45" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T45" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="4:20">
       <x:c r="D46" s="15" t="s">
-        <x:v>20</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E46" s="15"/>
       <x:c r="K46" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L46" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M46" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N46" s="13" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="4:14">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q46" s="13">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="R46" s="13" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="S46" s="13" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="T46" s="13" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="4:20">
       <x:c r="D47" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="15"/>
       <x:c r="K47" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L47" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M47" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N47" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="4:14">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q47" s="13">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="R47" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S47" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T47" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="4:20">
       <x:c r="D48" s="15" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K48" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L48" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="4:14">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="Q48" s="13">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="R48" s="13" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="S48" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="T48" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="4:20">
       <x:c r="D49" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E49" s="15"/>
       <x:c r="K49" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="4:14">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Q49" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R49" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S49" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T49" s="13" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="4:20">
       <x:c r="D50" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M50" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="4:14">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="Q50" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R50" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S50" s="13" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="T50" s="13" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="4:20">
       <x:c r="D51" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M51" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q51" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R51" s="19" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S51" s="13" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T51" s="13" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="4:4">
       <x:c r="D54" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="4:5">
       <x:c r="D55" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E55" s="15"/>
     </x:row>
     <x:row r="56" spans="4:5">
       <x:c r="D56" s="15" t="s">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E56" s="15"/>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K60" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M60" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L61" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M61" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E62" s="15"/>
       <x:c r="K62" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L62" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M62" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="F63" s="15"/>
@@ -2866,23 +3024,23 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L63" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M63" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:4">
       <x:c r="D65" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:13">
       <x:c r="D66" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
       <x:c r="F66" s="15"/>
@@ -2890,18 +3048,18 @@
       <x:c r="H66" s="15"/>
       <x:c r="I66" s="15"/>
       <x:c r="K66" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L66" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="13" t="s">
-        <x:v>95</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="4:13">
       <x:c r="D67" s="15" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E67" s="15"/>
       <x:c r="F67" s="15"/>
@@ -2909,18 +3067,18 @@
       <x:c r="H67" s="15"/>
       <x:c r="I67" s="15"/>
       <x:c r="K67" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L67" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="M67" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="4:13">
       <x:c r="D68" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E68" s="15"/>
       <x:c r="F68" s="15"/>
@@ -2928,28 +3086,28 @@
       <x:c r="H68" s="15"/>
       <x:c r="I68" s="15"/>
       <x:c r="K68" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L68" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="M68" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="11:13">
       <x:c r="K69" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L69" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="M69" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2961,8 +3119,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="B1:R66"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="H44" activeCellId="0" sqref="H44:H44"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <x:selection activeCell="I55" activeCellId="0" sqref="I55:I55"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2983,57 +3141,57 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:18">
       <x:c r="D5" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O5" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P5" s="13">
         <x:v>101</x:v>
@@ -3042,12 +3200,12 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="R5" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:18">
       <x:c r="D6" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E6" s="13">
         <x:v>101</x:v>
@@ -3056,16 +3214,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O6" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P6" s="13">
         <x:v>101</x:v>
@@ -3074,12 +3232,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="R6" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:18">
       <x:c r="D7" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E7" s="13">
         <x:v>102</x:v>
@@ -3088,16 +3246,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O7" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P7" s="13">
         <x:v>101</x:v>
@@ -3106,12 +3264,12 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="R7" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:18">
       <x:c r="D8" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E8" s="13">
         <x:v>101</x:v>
@@ -3120,10 +3278,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O8" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P8" s="13">
         <x:v>101</x:v>
@@ -3132,12 +3290,12 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="R8" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
       <x:c r="D9" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E9" s="13">
         <x:v>103</x:v>
@@ -3146,15 +3304,15 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="13" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E10" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
@@ -3163,37 +3321,37 @@
     </x:row>
     <x:row r="12" spans="4:11">
       <x:c r="D12" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L14" s="13">
         <x:v>101</x:v>
@@ -3202,16 +3360,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="4:14">
       <x:c r="D15" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E15" s="15"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L15" s="13">
         <x:v>102</x:v>
@@ -3220,12 +3378,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="11:14">
       <x:c r="K16" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L16" s="13">
         <x:v>101</x:v>
@@ -3234,15 +3392,15 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N16" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="4:14">
       <x:c r="D17" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K17" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L17" s="13">
         <x:v>103</x:v>
@@ -3251,41 +3409,41 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N17" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="4:5">
       <x:c r="D18" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
     </x:row>
     <x:row r="19" spans="4:5">
       <x:c r="D19" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E19" s="15"/>
     </x:row>
     <x:row r="21" spans="11:14">
       <x:c r="K21" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K22" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L22" s="13">
         <x:v>101</x:v>
@@ -3294,16 +3452,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="4:14">
       <x:c r="D23" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="K23" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L23" s="13">
         <x:v>102</x:v>
@@ -3312,16 +3470,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N23" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="4:14">
       <x:c r="D24" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E24" s="15"/>
       <x:c r="K24" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L24" s="13">
         <x:v>101</x:v>
@@ -3330,16 +3488,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N24" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="4:14">
       <x:c r="D25" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="15"/>
       <x:c r="K25" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L25" s="13">
         <x:v>103</x:v>
@@ -3348,105 +3506,105 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="11:13">
       <x:c r="K28" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L28" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M28" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="4:13">
       <x:c r="D29" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K29" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L29" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M29" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="4:13">
       <x:c r="D30" s="15" t="s">
-        <x:v>30</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K30" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:13">
       <x:c r="D31" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="K31" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:13">
       <x:c r="D32" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K32" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:11">
       <x:c r="K37" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="4:14">
       <x:c r="D38" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K38" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L38" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M38" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N38" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="4:14">
       <x:c r="D39" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E39" s="15"/>
       <x:c r="K39" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L39" s="13">
         <x:v>101</x:v>
@@ -3455,16 +3613,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N39" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="4:14">
       <x:c r="D40" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E40" s="15"/>
       <x:c r="K40" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L40" s="13">
         <x:v>102</x:v>
@@ -3473,16 +3631,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N40" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:14">
       <x:c r="D41" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E41" s="15"/>
       <x:c r="K41" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L41" s="13">
         <x:v>101</x:v>
@@ -3491,12 +3649,15 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N41" s="13" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="11:14">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="4:14">
+      <x:c r="D42" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="K42" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L42" s="13">
         <x:v>103</x:v>
@@ -3505,52 +3666,68 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N42" s="13" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="11:14">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="4:14">
+      <x:c r="D43" s="15" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E43" s="15"/>
       <x:c r="K43" s="13" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L43" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M43" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N43" s="13" t="s">
-        <x:v>41</x:v>
-      </x:c>
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="4:5">
+      <x:c r="D44" s="15" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E44" s="15"/>
+    </x:row>
+    <x:row r="45" spans="4:5">
+      <x:c r="D45" s="15" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E45" s="15"/>
     </x:row>
     <x:row r="48" spans="11:11">
       <x:c r="K48" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="4:14">
       <x:c r="D49" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K49" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L49" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="4:14">
       <x:c r="D50" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L50" s="13">
         <x:v>101</x:v>
@@ -3559,16 +3736,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:14">
       <x:c r="D51" s="15" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L51" s="13">
         <x:v>102</x:v>
@@ -3577,16 +3754,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="4:14">
       <x:c r="D52" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E52" s="15"/>
       <x:c r="K52" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L52" s="13">
         <x:v>103</x:v>
@@ -3595,26 +3772,26 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N52" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="11:14">
       <x:c r="K53" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L53" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M53" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N53" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="11:14">
       <x:c r="K54" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L54" s="13">
         <x:v>101</x:v>
@@ -3623,38 +3800,38 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N54" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="11:11">
       <x:c r="K58" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="4:14">
       <x:c r="D59" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K59" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L59" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M59" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N59" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E60" s="15"/>
       <x:c r="K60" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L60" s="13">
         <x:v>101</x:v>
@@ -3663,16 +3840,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L61" s="13">
         <x:v>102</x:v>
@@ -3681,16 +3858,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>31</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E62" s="15"/>
       <x:c r="K62" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L62" s="13">
         <x:v>101</x:v>
@@ -3699,16 +3876,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="K63" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L63" s="13">
         <x:v>103</x:v>
@@ -3717,53 +3894,53 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="4:14">
       <x:c r="D64" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E64" s="15"/>
       <x:c r="K64" s="13" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L64" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M64" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N64" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:14">
       <x:c r="D65" s="15" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E65" s="15"/>
       <x:c r="K65" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L65" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M65" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N65" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:5">
       <x:c r="D66" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -3775,7 +3952,7 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="C1:O12"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3801,7 +3978,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="3:12">
@@ -3809,109 +3986,109 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K2" s="5"/>
       <x:c r="L2" s="5"/>
     </x:row>
     <x:row r="3" spans="15:15">
       <x:c r="O3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="8:12">
       <x:c r="H4" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="8:13">
       <x:c r="H5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="8:13">
       <x:c r="H6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="8:13">
       <x:c r="H7" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:13">
       <x:c r="H8" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="8:9">
       <x:c r="H10" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
     </x:row>
     <x:row r="11" spans="8:9">
       <x:c r="H11" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
     </x:row>
     <x:row r="12" spans="8:9">
       <x:c r="H12" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -3923,7 +4100,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="B2:N27"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3942,184 +4119,184 @@
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G2" s="5"/>
       <x:c r="H2" s="5"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H4" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:14">
       <x:c r="D5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N5" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:14">
       <x:c r="D10" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="K10" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L10" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M10" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N10" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
     </x:row>
     <x:row r="15" spans="4:5">
       <x:c r="D15" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E15" s="4"/>
     </x:row>
     <x:row r="16" spans="4:5">
       <x:c r="D16" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E16" s="4"/>
     </x:row>
     <x:row r="17" spans="4:5">
       <x:c r="D17" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E17" s="4"/>
     </x:row>
     <x:row r="20" spans="4:5">
       <x:c r="D20" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E20" s="4"/>
     </x:row>
     <x:row r="21" spans="4:5">
       <x:c r="D21" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E21" s="4"/>
     </x:row>
     <x:row r="22" spans="4:5">
       <x:c r="D22" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E22" s="4"/>
     </x:row>
     <x:row r="25" spans="4:5">
       <x:c r="D25" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E25" s="4"/>
     </x:row>
     <x:row r="26" spans="4:5">
       <x:c r="D26" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E26" s="4"/>
     </x:row>
     <x:row r="27" spans="4:5">
       <x:c r="D27" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E27" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>

--- a/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
+++ b/1학년2학기/데이터베이스/데이터베이스 기말/12week/인공_dy242DB1-SQL실습02-w12-stu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18950" windowHeight="6620" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25350" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="복습-freshman" sheetId="1" r:id="rId4"/>
@@ -31,7 +31,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="116">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="117">
+  <x:si>
+    <x:t>FROM   omember INNER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp RIGHT OUTER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON freshman.name = dmember.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조영수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신동엽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임꺽정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박찬호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>4</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM  emp, project;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  emp, project</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t>i</x:t>
@@ -46,6 +104,126 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작전중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍보부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특공대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유레카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김광식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다모여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김현정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pname</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>R</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>S</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>3</x:t>
     </x:r>
@@ -60,32 +238,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>4</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>R</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>2</x:t>
     </x:r>
     <x:r>
@@ -98,8 +250,20 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R1.A = S1.A;</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>S</x:t>
+      <x:t>f</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -107,26 +271,314 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
+      <x:t>reshman, dmember</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman, dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON       emp.pno = project.pno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT emp.pno, ename, pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   emp INNER JOIN project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE emp.pno = project.pno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT omember.groupid, id, position;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관계대수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ename</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산업공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 내부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등조인</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[복습</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>n</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ame</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>a</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ddress</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>roupid</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>1</x:t>
     </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>) 내부조인</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[실습</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 2]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>R</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1, S1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>5) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 카디션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT *</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 자연 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 세타 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 완전 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 동등 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 오른쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 왼쪽 외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카티션 프로덕트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- 실행결과는 무엇인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  R1, S1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  R1, S1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp, project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  omember, group_ex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT R1.A, B, C, D</x:t>
   </x:si>
   <x:si>
     <x:t>FROM omember, group_ex</x:t>
   </x:si>
   <x:si>
-    <x:t>SELECT R1.A, B, C, D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman, dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  omember, group_ex;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       omember.groupid = group_ex.groupid;</x:t>
+    <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>roup_ex</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>f</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>reshman</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 1-</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>) 카티션 프로덕트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>osition</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -140,455 +592,6 @@
       </x:rPr>
       <x:t>3]</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>5) 오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 카디션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT *</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dept_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카티션 프로덕트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 오른쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>f</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>reshman</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>) 카티션 프로덕트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>osition</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>g</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>roup_ex</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[Quiz 1-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman RIGHT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember RIGHT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE omember.groupid = group_ex.groupid;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember INNER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp RIGHT OUTER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON freshman.name = dmember.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE freshman.name = dmember.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp LEFT OUTER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp, project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  R1, S1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  R1, S1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- 실행결과는 무엇인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산업공학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동등 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관계대수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완전 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세타 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왼쪽 외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 내부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 동등조인</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[복습</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>n</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ame</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>a</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ddress</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>R</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1, S1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>) 내부조인</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>g</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>roupid</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>[실습</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 2]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>FROM   emp INNER JOIN project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT emp.pno, ename, pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON       emp.pno = project.pno;</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>f</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>reshman, dmember</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>FROM  emp, project;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omember, group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A &gt;= S1.C;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  emp, project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R1.A = S1.A;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman FULL OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   freshman LEFT OUTER JOIN dmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM   omember LEFT OUTER JOIN group_ex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT omember.groupid, id, position;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍보부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김현정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김광식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유레카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작전중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특공대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다모여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조영수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박찬호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신동엽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임꺽정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omember</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -841,7 +844,241 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7330964" y="1287517"/>
+          <a:ext cx="991913" cy="1057603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374431" y="4571999"/>
+          <a:ext cx="5747844" cy="2423948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5732318" y="1307522"/>
+          <a:ext cx="1004454" cy="1056409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6884458" y="1338791"/>
+          <a:ext cx="1005416" cy="1058333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6887307" y="1326173"/>
+          <a:ext cx="996461" cy="1055076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -928,7 +1165,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1008,240 +1245,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7330964" y="1287517"/>
-          <a:ext cx="991913" cy="1057603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="374431" y="4571999"/>
-          <a:ext cx="5747844" cy="2423948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5732318" y="1307522"/>
-          <a:ext cx="1004454" cy="1056409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6900863" y="1319212"/>
-          <a:ext cx="990600" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6887307" y="1326173"/>
-          <a:ext cx="996461" cy="1055076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -1537,7 +1540,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:K12"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="L7" activeCellId="0" sqref="L7:L7"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1556,101 +1559,101 @@
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:9">
       <x:c r="D5" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>49</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="15"/>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" s="15"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="15" t="s">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
     </x:row>
@@ -1690,57 +1693,57 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="12:12">
       <x:c r="L3" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:13">
       <x:c r="D4" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M4" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:13">
       <x:c r="D5" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H5" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J5" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M5" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:13">
@@ -1760,10 +1763,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M6" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:13">
@@ -1783,10 +1786,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M7" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:10">
@@ -1802,36 +1805,36 @@
     </x:row>
     <x:row r="11" spans="4:12">
       <x:c r="D11" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L11" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:16">
       <x:c r="D12" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="L12" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N12" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O12" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P12" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:16">
       <x:c r="D13" s="15" t="s">
-        <x:v>42</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="L13" s="17">
@@ -1937,36 +1940,36 @@
     </x:row>
     <x:row r="20" spans="4:12">
       <x:c r="D20" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L20" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:16">
       <x:c r="D21" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="L21" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N21" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O21" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P21" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:16">
       <x:c r="D22" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="L22" s="17">
@@ -1987,7 +1990,7 @@
     </x:row>
     <x:row r="23" spans="4:16">
       <x:c r="D23" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="L23" s="17">
@@ -2008,32 +2011,32 @@
     </x:row>
     <x:row r="26" spans="4:12">
       <x:c r="D26" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="L26" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="4:15">
       <x:c r="D27" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L27" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M27" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N27" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O27" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="4:15">
       <x:c r="D28" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L28" s="17">
         <x:v>1</x:v>
@@ -2050,7 +2053,7 @@
     </x:row>
     <x:row r="29" spans="4:15">
       <x:c r="D29" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L29" s="17">
         <x:v>2</x:v>
@@ -2070,36 +2073,36 @@
     </x:row>
     <x:row r="31" spans="4:12">
       <x:c r="D31" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L31" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:16">
       <x:c r="D32" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="L32" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O32" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P32" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="4:16">
       <x:c r="D33" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="L33" s="17">
@@ -2120,7 +2123,7 @@
     </x:row>
     <x:row r="34" spans="4:16">
       <x:c r="D34" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="15"/>
       <x:c r="L34" s="17">
@@ -2158,24 +2161,24 @@
     </x:row>
     <x:row r="44" spans="12:12">
       <x:c r="L44" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:15">
       <x:c r="D45" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O45" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2191,8 +2194,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B1:T69"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="E62" activeCellId="0" sqref="E62:E62"/>
+    <x:sheetView showGridLines="0" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="Q70" activeCellId="0" sqref="Q70:Q70"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2215,54 +2218,54 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:12">
       <x:c r="D5" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:12">
@@ -2270,19 +2273,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:12">
@@ -2290,19 +2293,19 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E7" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H7" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
@@ -2310,13 +2313,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
@@ -2324,85 +2327,85 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H9" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:9">
       <x:c r="D10" s="16"/>
       <x:c r="E10" s="16"/>
       <x:c r="H10" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:11">
       <x:c r="D11" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K11" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:14">
       <x:c r="D12" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="15"/>
       <x:c r="K12" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L12" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M12" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N12" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L14" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M14" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="11:14">
@@ -2410,89 +2413,89 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L15" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M15" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="11:11">
       <x:c r="K18" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="4:14">
       <x:c r="D19" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K19" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L19" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M19" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N19" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="4:14">
       <x:c r="D20" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E20" s="15"/>
       <x:c r="K20" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L20" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M20" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N20" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:14">
       <x:c r="D21" s="15" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="K21" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="K22" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L22" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M22" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="11:14">
@@ -2500,189 +2503,189 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="L23" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="11:11">
       <x:c r="K29" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="4:20">
       <x:c r="D30" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K30" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N30" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q30" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="R30" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="S30" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T30" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:20">
       <x:c r="D31" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="15"/>
       <x:c r="K31" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N31" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q31" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="R31" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="S31" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T31" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:20">
       <x:c r="D32" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E32" s="15"/>
       <x:c r="K32" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N32" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q32" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="R32" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="S32" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T32" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="4:20">
       <x:c r="D33" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E33" s="15"/>
       <x:c r="K33" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M33" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N33" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q33" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="R33" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S33" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T33" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:20">
       <x:c r="K34" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M34" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N34" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R34" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S34" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T34" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:20">
       <x:c r="K35" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M35" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N35" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R35" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S35" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T35" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:20">
@@ -2690,331 +2693,333 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L36" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M36" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N36" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R36" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S36" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="T36" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="11:11">
       <x:c r="K43" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:14">
       <x:c r="D44" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K44" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L44" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M44" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N44" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:20">
       <x:c r="D45" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E45" s="15"/>
       <x:c r="K45" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L45" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M45" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N45" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q45" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="R45" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="S45" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T45" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="4:20">
       <x:c r="D46" s="15" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E46" s="15"/>
       <x:c r="K46" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L46" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M46" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N46" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q46" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="R46" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="S46" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T46" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="4:20">
       <x:c r="D47" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E47" s="15"/>
       <x:c r="K47" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L47" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M47" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N47" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q47" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="R47" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="S47" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T47" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="4:20">
       <x:c r="D48" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K48" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L48" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q48" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="R48" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S48" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T48" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="4:20">
       <x:c r="D49" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E49" s="15"/>
       <x:c r="K49" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R49" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S49" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T49" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="4:20">
       <x:c r="D50" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M50" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R50" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S50" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T50" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:20">
       <x:c r="D51" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M51" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R51" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S51" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="T51" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="4:4">
       <x:c r="D54" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="4:5">
       <x:c r="D55" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E55" s="15"/>
     </x:row>
     <x:row r="56" spans="4:5">
       <x:c r="D56" s="15" t="s">
-        <x:v>10</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E56" s="15"/>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K60" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L60" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M60" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="L61" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M61" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E62" s="15"/>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E62" s="15" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="K62" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L62" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M62" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="F63" s="15"/>
@@ -3024,23 +3029,23 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="L63" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M63" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:4">
       <x:c r="D65" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:13">
       <x:c r="D66" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
       <x:c r="F66" s="15"/>
@@ -3048,18 +3053,18 @@
       <x:c r="H66" s="15"/>
       <x:c r="I66" s="15"/>
       <x:c r="K66" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L66" s="13" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M66" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="4:13">
       <x:c r="D67" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E67" s="15"/>
       <x:c r="F67" s="15"/>
@@ -3067,18 +3072,18 @@
       <x:c r="H67" s="15"/>
       <x:c r="I67" s="15"/>
       <x:c r="K67" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L67" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="M67" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="4:13">
       <x:c r="D68" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E68" s="15"/>
       <x:c r="F68" s="15"/>
@@ -3086,24 +3091,24 @@
       <x:c r="H68" s="15"/>
       <x:c r="I68" s="15"/>
       <x:c r="K68" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L68" s="13">
         <x:v>100</x:v>
       </x:c>
       <x:c r="M68" s="13" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="11:13">
       <x:c r="K69" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L69" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="M69" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3119,7 +3124,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="B1:R66"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <x:selection activeCell="I55" activeCellId="0" sqref="I55:I55"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3141,57 +3146,57 @@
     </x:row>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G2" s="9"/>
       <x:c r="H2" s="9"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:12">
       <x:c r="D4" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H4" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L4" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:18">
       <x:c r="D5" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E5" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H5" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I5" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O5" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P5" s="13">
         <x:v>101</x:v>
@@ -3200,12 +3205,12 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="R5" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:18">
       <x:c r="D6" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="13">
         <x:v>101</x:v>
@@ -3214,16 +3219,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L6" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="O6" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P6" s="13">
         <x:v>101</x:v>
@@ -3232,12 +3237,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="R6" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:18">
       <x:c r="D7" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="13">
         <x:v>102</x:v>
@@ -3246,16 +3251,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L7" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O7" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P7" s="13">
         <x:v>101</x:v>
@@ -3264,12 +3269,12 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="R7" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:18">
       <x:c r="D8" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="13">
         <x:v>101</x:v>
@@ -3278,10 +3283,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I8" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O8" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P8" s="13">
         <x:v>101</x:v>
@@ -3290,12 +3295,12 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="R8" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:9">
       <x:c r="D9" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="13">
         <x:v>103</x:v>
@@ -3304,15 +3309,15 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="I9" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:5">
       <x:c r="D10" s="13" t="s">
-        <x:v>113</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E10" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
@@ -3321,37 +3326,37 @@
     </x:row>
     <x:row r="12" spans="4:11">
       <x:c r="D12" s="9" t="s">
-        <x:v>62</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="4:14">
       <x:c r="D13" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="K13" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L13" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M13" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N13" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:14">
       <x:c r="D14" s="15" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E14" s="15"/>
       <x:c r="K14" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L14" s="13">
         <x:v>101</x:v>
@@ -3360,16 +3365,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="4:14">
       <x:c r="D15" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E15" s="15"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L15" s="13">
         <x:v>102</x:v>
@@ -3378,12 +3383,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N15" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="11:14">
       <x:c r="K16" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L16" s="13">
         <x:v>101</x:v>
@@ -3392,15 +3397,15 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N16" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="4:14">
       <x:c r="D17" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K17" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L17" s="13">
         <x:v>103</x:v>
@@ -3409,41 +3414,41 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N17" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="4:5">
       <x:c r="D18" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
     </x:row>
     <x:row r="19" spans="4:5">
       <x:c r="D19" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E19" s="15"/>
     </x:row>
     <x:row r="21" spans="11:14">
       <x:c r="K21" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L21" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M21" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="4:14">
       <x:c r="D22" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K22" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L22" s="13">
         <x:v>101</x:v>
@@ -3452,16 +3457,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N22" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="4:14">
       <x:c r="D23" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E23" s="15"/>
       <x:c r="K23" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L23" s="13">
         <x:v>102</x:v>
@@ -3470,16 +3475,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N23" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="4:14">
       <x:c r="D24" s="15" t="s">
-        <x:v>80</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E24" s="15"/>
       <x:c r="K24" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L24" s="13">
         <x:v>101</x:v>
@@ -3488,16 +3493,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N24" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="4:14">
       <x:c r="D25" s="15" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E25" s="15"/>
       <x:c r="K25" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L25" s="13">
         <x:v>103</x:v>
@@ -3506,105 +3511,105 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="11:13">
       <x:c r="K28" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L28" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M28" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="4:13">
       <x:c r="D29" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K29" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L29" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M29" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="4:13">
       <x:c r="D30" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K30" s="13">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L30" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M30" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="4:13">
       <x:c r="D31" s="15" t="s">
-        <x:v>80</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K31" s="13">
         <x:v>101</x:v>
       </x:c>
       <x:c r="L31" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M31" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="4:13">
       <x:c r="D32" s="15" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K32" s="13">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L32" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M32" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:11">
       <x:c r="K37" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="4:14">
       <x:c r="D38" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K38" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L38" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M38" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N38" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="4:14">
       <x:c r="D39" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E39" s="15"/>
       <x:c r="K39" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L39" s="13">
         <x:v>101</x:v>
@@ -3613,16 +3618,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N39" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="4:14">
       <x:c r="D40" s="15" t="s">
-        <x:v>40</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E40" s="15"/>
       <x:c r="K40" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L40" s="13">
         <x:v>102</x:v>
@@ -3631,16 +3636,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N40" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:14">
       <x:c r="D41" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E41" s="15"/>
       <x:c r="K41" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L41" s="13">
         <x:v>101</x:v>
@@ -3649,15 +3654,15 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N41" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="4:14">
       <x:c r="D42" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K42" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L42" s="13">
         <x:v>103</x:v>
@@ -3666,68 +3671,68 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N42" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="4:14">
       <x:c r="D43" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E43" s="15"/>
       <x:c r="K43" s="13" t="s">
-        <x:v>113</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L43" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M43" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N43" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:5">
       <x:c r="D44" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E44" s="15"/>
     </x:row>
     <x:row r="45" spans="4:5">
       <x:c r="D45" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E45" s="15"/>
     </x:row>
     <x:row r="48" spans="11:11">
       <x:c r="K48" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="4:14">
       <x:c r="D49" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K49" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L49" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M49" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N49" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="4:14">
       <x:c r="D50" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E50" s="15"/>
       <x:c r="K50" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L50" s="13">
         <x:v>101</x:v>
@@ -3736,16 +3741,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N50" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:14">
       <x:c r="D51" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E51" s="15"/>
       <x:c r="K51" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L51" s="13">
         <x:v>102</x:v>
@@ -3754,16 +3759,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N51" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="4:14">
       <x:c r="D52" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E52" s="15"/>
       <x:c r="K52" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L52" s="13">
         <x:v>103</x:v>
@@ -3772,26 +3777,26 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N52" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="11:14">
       <x:c r="K53" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L53" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M53" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N53" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="11:14">
       <x:c r="K54" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L54" s="13">
         <x:v>101</x:v>
@@ -3800,38 +3805,38 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N54" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="11:11">
       <x:c r="K58" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="4:14">
       <x:c r="D59" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K59" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L59" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M59" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N59" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="4:14">
       <x:c r="D60" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E60" s="15"/>
       <x:c r="K60" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L60" s="13">
         <x:v>101</x:v>
@@ -3840,16 +3845,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N60" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:14">
       <x:c r="D61" s="15" t="s">
-        <x:v>40</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E61" s="15"/>
       <x:c r="K61" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L61" s="13">
         <x:v>102</x:v>
@@ -3858,16 +3863,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="N61" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="4:14">
       <x:c r="D62" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E62" s="15"/>
       <x:c r="K62" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L62" s="13">
         <x:v>101</x:v>
@@ -3876,16 +3881,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="N62" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="4:14">
       <x:c r="D63" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="K63" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L63" s="13">
         <x:v>103</x:v>
@@ -3894,48 +3899,48 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="N63" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="4:14">
       <x:c r="D64" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E64" s="15"/>
       <x:c r="K64" s="13" t="s">
-        <x:v>113</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L64" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M64" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N64" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="4:14">
       <x:c r="D65" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E65" s="15"/>
       <x:c r="K65" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L65" s="13" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M65" s="13">
         <x:v>104</x:v>
       </x:c>
       <x:c r="N65" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="4:5">
       <x:c r="D66" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E66" s="15"/>
     </x:row>
@@ -3978,7 +3983,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="3:12">
@@ -3986,104 +3991,104 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K2" s="5"/>
       <x:c r="L2" s="5"/>
     </x:row>
     <x:row r="3" spans="15:15">
       <x:c r="O3" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="8:12">
       <x:c r="H4" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="8:13">
       <x:c r="H5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="8:13">
       <x:c r="H6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="8:13">
       <x:c r="H7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="8:13">
       <x:c r="H8" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="8:9">
       <x:c r="H10" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
     </x:row>
     <x:row r="11" spans="8:9">
       <x:c r="H11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
     </x:row>
     <x:row r="12" spans="8:9">
       <x:c r="H12" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
     </x:row>
@@ -4100,7 +4105,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="B2:N27"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A78" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4119,179 +4124,179 @@
   <x:sheetData>
     <x:row r="2" spans="2:8">
       <x:c r="B2" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G2" s="5"/>
       <x:c r="H2" s="5"/>
     </x:row>
     <x:row r="3" spans="11:11">
       <x:c r="K3" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:8">
       <x:c r="D4" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H4" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:14">
       <x:c r="D5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I5" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M5" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N5" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:9">
       <x:c r="D6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:9">
       <x:c r="D7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:9">
       <x:c r="D8" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="4:14">
       <x:c r="D10" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="K10" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L10" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M10" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N10" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:5">
       <x:c r="D11" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
     </x:row>
     <x:row r="15" spans="4:5">
       <x:c r="D15" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E15" s="4"/>
     </x:row>
     <x:row r="16" spans="4:5">
       <x:c r="D16" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E16" s="4"/>
     </x:row>
     <x:row r="17" spans="4:5">
       <x:c r="D17" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E17" s="4"/>
     </x:row>
     <x:row r="20" spans="4:5">
       <x:c r="D20" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E20" s="4"/>
     </x:row>
     <x:row r="21" spans="4:5">
       <x:c r="D21" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E21" s="4"/>
     </x:row>
     <x:row r="22" spans="4:5">
       <x:c r="D22" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="4"/>
     </x:row>
     <x:row r="25" spans="4:5">
       <x:c r="D25" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E25" s="4"/>
     </x:row>
     <x:row r="26" spans="4:5">
       <x:c r="D26" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E26" s="4"/>
     </x:row>
     <x:row r="27" spans="4:5">
       <x:c r="D27" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E27" s="4"/>
     </x:row>
